--- a/하노이의하루 할 일 모음.xlsx
+++ b/하노이의하루 할 일 모음.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>완료할 사람:</t>
   </si>
@@ -837,6 +837,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3">
       <alignment horizontal="left"/>
     </xf>
@@ -846,21 +861,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="181" fontId="20" fillId="2" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1240,8 +1240,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="프로젝트1" displayName="프로젝트1" ref="B7:E19" totalsRowShown="0">
-  <autoFilter ref="B7:E19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="프로젝트1" displayName="프로젝트1" ref="B7:E18" totalsRowShown="0">
+  <autoFilter ref="B7:E18"/>
   <sortState ref="B8:E19">
     <sortCondition ref="D7:D19"/>
   </sortState>
@@ -1647,10 +1647,10 @@
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E21"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1674,33 +1674,33 @@
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1"/>
     <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1"/>
     <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="3" t="s">
@@ -1720,96 +1720,96 @@
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="18">
         <v>43435</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="22">
-        <v>43435</v>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43437</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="18">
         <v>43437</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="22">
-        <v>43437</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="18">
+        <v>43438</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="22">
-        <v>43438</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43439</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6">
-        <v>43439</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>43440</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" s="6">
         <v>43440</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1817,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D15" s="6">
-        <v>43440</v>
+        <v>43441</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>19</v>
@@ -1830,14 +1830,14 @@
       <c r="B16" s="5">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6">
-        <v>43441</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>19</v>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="18">
+        <v>43444</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1845,12 +1845,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="22">
-        <v>43444</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1858,18 +1856,12 @@
       <c r="B18" s="5">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C18"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1">
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="3"/>
     </row>
@@ -1877,11 +1869,6 @@
       <c r="B20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1">
-      <c r="B21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1892,7 +1879,7 @@
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B19">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -1901,7 +1888,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="B20">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1910,8 +1897,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B19">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="B8:B18">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1952,7 +1939,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1979,33 +1966,33 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1"/>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1"/>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="7" t="s">
@@ -2069,7 +2056,7 @@
       <c r="D11" s="6">
         <v>43448</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="12">
@@ -2081,7 +2068,7 @@
       <c r="D12" s="6">
         <v>43448</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="12">
@@ -2109,7 +2096,7 @@
       <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="10"/>
@@ -2119,7 +2106,7 @@
       <c r="B16" s="12">
         <v>0</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="10"/>
@@ -2201,33 +2188,33 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1"/>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1"/>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="7" t="s">
